--- a/biology/Médecine/Sang_dans_les_selles/Sang_dans_les_selles.xlsx
+++ b/biology/Médecine/Sang_dans_les_selles/Sang_dans_les_selles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En parlant de saignement rectal, voici les termes médicaux qui servent à différencier à la fois l'aspect du sang et si celui-ci est ou non accompagné de selles. Ils donnent aussi des indices quant à l'origine de l'hémorragie :
 un méléna est une expulsion de sang noir rappelant du goudron, mélangé aux selles. Ce sang provient le plus souvent du système digestif supérieur, plus probablement du duodénum ou de l'estomac. Cependant, si le transit digestif est assez lent, il se peut que ce sang proviennent d'un endroit plus inférieur.
